--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="0" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="6880" yWindow="0" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -73,13 +73,37 @@
   </si>
   <si>
     <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>Brainstorming</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Design Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flow Diagram </t>
+  </si>
+  <si>
+    <t>Learning*</t>
+  </si>
+  <si>
+    <t>Characteristics List</t>
+  </si>
+  <si>
+    <t>Behavior Definition</t>
+  </si>
+  <si>
+    <t>Interface List</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +133,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -127,8 +167,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -141,7 +183,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,16 +515,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="16">
@@ -558,27 +603,71 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6880" yWindow="0" windowWidth="25040" windowHeight="16900" tabRatio="500"/>
+    <workbookView xWindow="6885" yWindow="0" windowWidth="25035" windowHeight="16905" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -190,6 +195,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -518,17 +531,17 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +553,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -552,7 +565,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -562,7 +575,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,70 +610,91 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="F5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="F7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
       <c r="F8">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="F9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -531,7 +531,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6885" yWindow="0" windowWidth="25035" windowHeight="16905" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -102,6 +97,33 @@
   </si>
   <si>
     <t>Interface List</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Major Compnents BOM</t>
+  </si>
+  <si>
+    <t>HW Block Diagram</t>
+  </si>
+  <si>
+    <t>Product Architecture</t>
+  </si>
+  <si>
+    <t>Calculations</t>
+  </si>
+  <si>
+    <t>Datasheet Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current Budget </t>
+  </si>
+  <si>
+    <t>Major Signals List</t>
+  </si>
+  <si>
+    <t>Interface Pinouts</t>
   </si>
 </sst>
 </file>
@@ -172,8 +194,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -188,9 +222,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,20 +574,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -553,7 +600,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -565,7 +612,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -575,7 +622,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -610,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -618,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -626,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -634,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -642,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -650,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -658,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -666,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -674,28 +721,86 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f>D15*E15</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="B17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="B19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -577,18 +582,18 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -622,7 +627,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -665,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -673,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -681,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -689,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -697,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -705,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -713,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -721,17 +726,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -746,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -754,52 +759,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -582,18 +577,18 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +600,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -617,7 +612,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -627,7 +622,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -662,7 +657,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -670,7 +665,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -678,7 +673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -686,7 +681,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -694,7 +689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -702,7 +697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -710,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -718,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -726,17 +721,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -751,7 +746,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -759,52 +754,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3">
       <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3">
       <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>17</v>
       </c>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4260" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -577,18 +582,18 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +605,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -612,7 +617,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -622,7 +627,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -657,7 +662,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -665,7 +670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -673,7 +678,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -681,7 +686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -689,7 +694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -697,7 +702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -705,7 +710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -713,7 +718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -721,17 +726,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -746,7 +751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -754,52 +759,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>17</v>
       </c>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
@@ -129,6 +129,18 @@
   </si>
   <si>
     <t>Interface Pinouts</t>
+  </si>
+  <si>
+    <t>Eagle schematic</t>
+  </si>
+  <si>
+    <t>Eagle board</t>
+  </si>
+  <si>
+    <t>Eagle library Resarch</t>
+  </si>
+  <si>
+    <t>Eagle library build</t>
   </si>
 </sst>
 </file>
@@ -579,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -759,53 +771,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>35</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="-34000" yWindow="2620" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>Name</t>
   </si>
@@ -134,13 +129,34 @@
     <t>Eagle schematic</t>
   </si>
   <si>
-    <t>Eagle board</t>
-  </si>
-  <si>
-    <t>Eagle library Resarch</t>
-  </si>
-  <si>
     <t>Eagle library build</t>
+  </si>
+  <si>
+    <t>Eagle Layout</t>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Package </t>
+  </si>
+  <si>
+    <t>Symbol</t>
+  </si>
+  <si>
+    <t>Prebuilt Eagle library Research</t>
+  </si>
+  <si>
+    <t>Place</t>
+  </si>
+  <si>
+    <t>Wire</t>
+  </si>
+  <si>
+    <t>Naming</t>
+  </si>
+  <si>
+    <t>Error Checking</t>
   </si>
 </sst>
 </file>
@@ -211,8 +227,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -239,7 +259,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -247,6 +267,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -254,6 +276,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -591,21 +615,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30:F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -617,7 +641,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="16.5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -629,7 +653,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -639,7 +663,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -674,7 +698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -682,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" t="s">
         <v>18</v>
       </c>
@@ -690,7 +714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>19</v>
       </c>
@@ -698,7 +722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" t="s">
         <v>20</v>
       </c>
@@ -706,7 +730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -714,7 +738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" t="s">
         <v>22</v>
       </c>
@@ -722,7 +746,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" t="s">
         <v>23</v>
       </c>
@@ -730,7 +754,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" t="s">
         <v>24</v>
       </c>
@@ -738,17 +762,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="B13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="B15" t="s">
         <v>26</v>
       </c>
@@ -763,7 +787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="B16" t="s">
         <v>27</v>
       </c>
@@ -771,7 +795,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="B17" t="s">
         <v>28</v>
       </c>
@@ -779,7 +803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -787,12 +811,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -800,7 +824,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="C21" t="s">
         <v>32</v>
       </c>
@@ -808,7 +832,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -816,7 +840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="C23" t="s">
         <v>34</v>
       </c>
@@ -824,50 +848,85 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F25">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F26">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+    <row r="27" spans="1:6">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="C28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="B30" t="s">
         <v>35</v>
       </c>
-      <c r="F27">
+      <c r="F30">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="31" spans="1:6">
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="C33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="C34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-34000" yWindow="2620" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +157,48 @@
   </si>
   <si>
     <t>Error Checking</t>
+  </si>
+  <si>
+    <t>Set Up</t>
+  </si>
+  <si>
+    <t>Base Line Existing Hardware</t>
+  </si>
+  <si>
+    <t>Board Induction</t>
+  </si>
+  <si>
+    <t>Smoke Test</t>
+  </si>
+  <si>
+    <t>Debug Cycle</t>
+  </si>
+  <si>
+    <t>Test Setup</t>
+  </si>
+  <si>
+    <t>Testing the Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analysis Development </t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Assembly</t>
+  </si>
+  <si>
+    <t>Board prep</t>
+  </si>
+  <si>
+    <t>Component Soldering</t>
+  </si>
+  <si>
+    <t>Rework</t>
   </si>
 </sst>
 </file>
@@ -227,8 +269,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -259,7 +313,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="31">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -269,6 +323,12 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -278,6 +338,12 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -615,21 +681,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F35"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,7 +707,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -653,7 +719,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" ht="16">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -663,7 +729,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" ht="16">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -920,14 +986,84 @@
         <v>2</v>
       </c>
     </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="B39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+    <row r="41" spans="1:6">
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="B42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="B43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="B44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Zacher/Task Enumeration.xlsx
+++ b/Zacher/Task Enumeration.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zache_000\Documents\GitHub\Independent\Zacher\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-34000" yWindow="2620" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="-34005" yWindow="2625" windowWidth="25035" windowHeight="15495" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="152511" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -157,6 +162,39 @@
   </si>
   <si>
     <t>Error Checking</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Multimeter</t>
+  </si>
+  <si>
+    <t>Oscilliscope</t>
+  </si>
+  <si>
+    <t>Asemble</t>
+  </si>
+  <si>
+    <t>Relayout</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Arduino</t>
+  </si>
+  <si>
+    <t>1 Week</t>
+  </si>
+  <si>
+    <t>2 Weeks</t>
+  </si>
+  <si>
+    <t>4 Weeks</t>
+  </si>
+  <si>
+    <t>Layout</t>
   </si>
 </sst>
 </file>
@@ -170,28 +208,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
@@ -208,6 +224,32 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -229,35 +271,36 @@
   </borders>
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -615,21 +658,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="190" zoomScaleNormal="190" zoomScalePageLayoutView="190" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30:F35"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="190" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.25" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -641,8 +692,8 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
@@ -653,7 +704,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="16.5">
+    <row r="3" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -663,7 +714,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5">
+    <row r="4" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -682,257 +733,506 @@
       <c r="F4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
+    <row r="5" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="B6" t="s">
+      <c r="K5" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="B7" t="s">
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="B8" t="s">
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="B9" t="s">
+      <c r="H8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="B10" t="s">
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="B11" t="s">
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="B12" t="s">
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="B13" t="s">
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" t="s">
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="B15" t="s">
+      <c r="K14" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>10</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <f>D15*E15</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="B16" t="s">
+      <c r="H15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="B17" t="s">
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="B18" t="s">
+      <c r="H17" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="B19" t="s">
+      <c r="H18" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="C20" t="s">
+    <row r="20" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="C21" t="s">
+      <c r="H20" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="C22" t="s">
+      <c r="H21" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="C23" t="s">
+      <c r="F22" s="4">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="H23" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="B25" t="s">
+      <c r="K24" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="B26" t="s">
+      <c r="H25" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="C27" t="s">
+      <c r="H26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="C28" t="s">
+      <c r="F27" s="4">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="C29" t="s">
+      <c r="F28" s="4">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="B30" t="s">
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F30">
+    </row>
+    <row r="31" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="4">
+        <v>2</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="4">
+        <v>2</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="C32" t="s">
+      <c r="H36" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="4" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="C33" t="s">
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="C34" t="s">
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="B35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="F39" s="4">
+        <v>3</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="K40" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E42" s="4">
+        <v>30</v>
+      </c>
+      <c r="F42" s="4">
+        <v>15</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E43" s="4">
+        <v>20</v>
+      </c>
+      <c r="F43" s="4">
+        <v>10</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E45" s="4">
+        <v>30</v>
+      </c>
+      <c r="F45" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.05</v>
+      </c>
+      <c r="E46" s="4">
+        <v>30</v>
+      </c>
+      <c r="F46" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
         <v>17</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F49" s="4">
+        <v>4</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
